--- a/doc/quality_attributes.xlsx
+++ b/doc/quality_attributes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="80" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="13040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,94 +299,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -748,18 +748,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
-    <col min="6" max="6" width="32.5" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -786,161 +786,161 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="16" t="s">
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="25"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="21" t="s">
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="29"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1189,23 +1189,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
